--- a/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.12.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_2_Common_alpha=0.12.xlsx
@@ -67,12 +67,12 @@
     <t>כן, יואב.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>כן.</t>
   </si>
   <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>הוא הגיע אתך.</t>
   </si>
   <si>
@@ -115,148 +115,148 @@
     <t>אם זה לא לאחרונה?</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
+  </si>
+  <si>
+    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
+  </si>
+  <si>
+    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
+  </si>
+  <si>
+    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>ליואב?</t>
+  </si>
+  <si>
+    <t>ליואב סכרת?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
+  </si>
+  <si>
+    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
+  </si>
+  <si>
+    <t>אה כן.</t>
+  </si>
+  <si>
+    <t>מהבדיקות?</t>
+  </si>
+  <si>
+    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
+  </si>
+  <si>
+    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
+  </si>
+  <si>
+    <t>שעבר שבדק.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
+  </si>
+  <si>
+    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
+  </si>
+  <si>
+    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
+  </si>
+  <si>
+    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
+  </si>
+  <si>
+    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
+  </si>
+  <si>
+    <t>לילד בן חמש?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
+  </si>
+  <si>
+    <t>זה זה מעניין אותך לדעת.</t>
+  </si>
+  <si>
+    <t>?opinion</t>
+  </si>
+  <si>
+    <t>אני, אני יודעת מזה סכרת.</t>
+  </si>
+  <si>
+    <t>אה אוקי.</t>
+  </si>
+  <si>
+    <t>אני פשוט, אני לא אני בהלם כי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תראי בעיקרון את  כל הבדיקות יש לנו ואת כל האישורים יש לנו </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם את רוצה ללכת לסקנד אפיניון זה אני יכולה לתת לך אמ </t>
+  </si>
+  <si>
+    <t>c-med/thera</t>
+  </si>
+  <si>
+    <t>מה שאני,</t>
+  </si>
+  <si>
+    <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
+  </si>
+  <si>
+    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">זה מחלה אוטואימונית </t>
+  </si>
+  <si>
+    <t>לא יודעים.</t>
+  </si>
+  <si>
+    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
+  </si>
+  <si>
+    <t>לא.</t>
+  </si>
+  <si>
     <t>disagree</t>
-  </si>
-  <si>
-    <t>כן זה משהו שהוא במשך כמה חודשים,</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>זה כן כלומר במשך כמה חודשים שהוא לא מרגיש טוב.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא זה ממש החמיר עכשיו בימים האחרונים זה לא היה, זה לא היה כזה בחודשים האלה </t>
-  </si>
-  <si>
-    <t>לי זה הרגיש שהוא חטף איזשהו וירוס.</t>
-  </si>
-  <si>
-    <t>אה עשינו כמה בדיקות כי חשבנו שאולי זה ויראלי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> לא ידעתי בדיוק לאיזה כיוון .עשינו כמה בדיקות ...</t>
-  </si>
-  <si>
-    <t>ומתברר שזה סכרת, סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>ליואב?</t>
-  </si>
-  <si>
-    <t>ליואב סכרת?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן לפי הבדיקות ש שעשינו הוא נכון לעכשיו זה לא וירוס כלומר אפשר לשלול וירוס אהמ </t>
-  </si>
-  <si>
-    <t>לשמחתנו זה גם לא משהו אה יותר אה אה בוא נגיד אה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(לא נשמע) זאת אומרת זה משהו שהוא בוודאות במאה אחוז הוא נקבע זהו. </t>
-  </si>
-  <si>
-    <t>אה כן.</t>
-  </si>
-  <si>
-    <t>מהבדיקות?</t>
-  </si>
-  <si>
-    <t>כן קיבלנו את הבדיקות, בדיקות דם.</t>
-  </si>
-  <si>
-    <t>משהו נבדק על ידי רופאים כבר וגם משהו מעלייך,</t>
-  </si>
-  <si>
-    <t>שעבר שבדק.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן התייעצנו גם במרפאה של סכרת נעורים ושלחנו את זה ל להמטולוג זה, </t>
-  </si>
-  <si>
-    <t>זה החשש המרכזי כרגע לשם אנחנו חותרים לטפל  לכיוון הזה אנחנו מנסים ללכת.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">איך יכול להיות שיש לו סכרת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי אין לנו סכרת במשפחה </t>
-  </si>
-  <si>
-    <t xml:space="preserve">הוא לגמרי ילד רגיל כל הזמן איך </t>
-  </si>
-  <si>
-    <t>אני לא, אין לנו אף אחד במשפחה שיש לו סכרת.</t>
-  </si>
-  <si>
-    <t>אה כן יש, יש מקרים שזה, שזה מגיע האוט אוף דה בלו אה.</t>
-  </si>
-  <si>
-    <t>לילד בן חמש?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן, כן זה זאת מחלה לצערי אוטואימונית ש ש הגוף בעצם מע מערכת </t>
-  </si>
-  <si>
-    <t>זה זה מעניין אותך לדעת.</t>
-  </si>
-  <si>
-    <t>?opinion</t>
-  </si>
-  <si>
-    <t>אני, אני יודעת מזה סכרת.</t>
-  </si>
-  <si>
-    <t>אה אוקי.</t>
-  </si>
-  <si>
-    <t>אני פשוט, אני לא אני בהלם כי.</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כי זה לא נראה לך, זה לא נשמע לך, </t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תראי בעיקרון את  כל הבדיקות יש לנו ואת כל האישורים יש לנו </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם את רוצה ללכת לסקנד אפיניון זה אני יכולה לתת לך אמ </t>
-  </si>
-  <si>
-    <t>c-med/thera</t>
-  </si>
-  <si>
-    <t>מה שאני,</t>
-  </si>
-  <si>
-    <t>כמה זה במאה אחוז ה יכול להיות שיש פה טעות.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אה לא זה וודאי, זה וודאי </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אם את רוצה להיות שקטה בתור אימא אני אומרת לך את זה הייתי הולכת לשמוע עוד דעה או, או מ מ ממשהו מומחה לא יודעת מרפאת סכרת </t>
-  </si>
-  <si>
-    <t>אה אבל כן לצערי זה, זה אבל תראי.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">זה מחלה אוטואימונית </t>
-  </si>
-  <si>
-    <t>לא יודעים.</t>
-  </si>
-  <si>
-    <t>מה שאת אומרת, משהו שעשינו עם התזונה, שלו שהיא לא תקנית.</t>
-  </si>
-  <si>
-    <t>לא.</t>
   </si>
   <si>
     <t xml:space="preserve">לא, לא, לא זה שום דבר שקשור אליכם </t>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
         <v>17</v>
-      </c>
-      <c r="B29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1199,7 +1199,7 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1216,7 +1216,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
@@ -1272,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1437,7 +1437,7 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
         <v>6</v>
@@ -1451,10 +1451,10 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -1462,10 +1462,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
         <v>67</v>
-      </c>
-      <c r="B53" t="s">
-        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" t="s">
         <v>20</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" t="s">
         <v>70</v>
-      </c>
-      <c r="B55" t="s">
-        <v>71</v>
       </c>
       <c r="C55" t="s">
         <v>6</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
         <v>35</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
         <v>35</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
         <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
       </c>
       <c r="D65" t="s">
         <v>9</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
         <v>17</v>
       </c>
-      <c r="B75" t="s">
-        <v>18</v>
-      </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D75" t="s">
         <v>7</v>
@@ -1790,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
@@ -1801,10 +1801,10 @@
         <v>92</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D77" t="s">
         <v>7</v>
@@ -1818,7 +1818,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1857,7 +1857,7 @@
         <v>97</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
@@ -1885,7 +1885,7 @@
         <v>99</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
@@ -1913,10 +1913,10 @@
         <v>101</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
         <v>9</v>
@@ -1941,7 +1941,7 @@
         <v>103</v>
       </c>
       <c r="B87" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
         <v>26</v>
@@ -1955,10 +1955,10 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2025,10 +2025,10 @@
         <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D93" t="s">
         <v>9</v>
@@ -2039,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
@@ -2067,7 +2067,7 @@
         <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
@@ -2182,7 +2182,7 @@
         <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2193,7 +2193,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2210,7 +2210,7 @@
         <v>123</v>
       </c>
       <c r="C106" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D106" t="s">
         <v>9</v>
@@ -2238,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
         <v>9</v>
@@ -2266,7 +2266,7 @@
         <v>5</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
         <v>9</v>
